--- a/2022/Realme/January/17.01.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/January/17.01.2022/realme Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-2022" sheetId="7" r:id="rId1"/>
@@ -2399,6 +2399,12 @@
     <xf numFmtId="2" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2411,6 +2417,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2450,12 +2462,6 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2577,12 +2583,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3122,21 +3122,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="242" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -3963,9 +3963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3977,67 +3977,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="249" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
     </row>
     <row r="2" spans="1:24" s="103" customFormat="1" ht="18">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="250" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
     </row>
     <row r="3" spans="1:24" s="104" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="249"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="253"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4046,52 +4046,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="106" customFormat="1">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="254" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="256" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="241" t="s">
+      <c r="D4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="241" t="s">
+      <c r="G4" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="243" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="241" t="s">
+      <c r="I4" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="241" t="s">
+      <c r="J4" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="241" t="s">
+      <c r="K4" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="241" t="s">
+      <c r="L4" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="241" t="s">
+      <c r="M4" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="243" t="s">
+      <c r="N4" s="247" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="256" t="s">
+      <c r="O4" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="254" t="s">
+      <c r="P4" s="258" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="105" t="s">
@@ -4104,22 +4104,22 @@
       <c r="W4" s="108"/>
     </row>
     <row r="5" spans="1:24" s="106" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="251"/>
-      <c r="B5" s="253"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="255"/>
+      <c r="A5" s="255"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="259"/>
       <c r="Q5" s="110" t="s">
         <v>36</v>
       </c>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="H18" s="123"/>
       <c r="I18" s="123">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="J18" s="123">
         <v>160</v>
@@ -4603,7 +4603,7 @@
       <c r="P18" s="125"/>
       <c r="Q18" s="119">
         <f t="shared" si="0"/>
-        <v>890</v>
+        <v>950</v>
       </c>
       <c r="R18" s="120"/>
       <c r="S18" s="4"/>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="I37" s="141">
         <f t="shared" si="1"/>
-        <v>1970</v>
+        <v>2030</v>
       </c>
       <c r="J37" s="141">
         <f t="shared" si="1"/>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="Q37" s="143">
         <f>SUM(Q6:Q36)</f>
-        <v>17160</v>
+        <v>17220</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7141,12 +7141,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7160,6 +7154,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7197,14 +7197,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="267"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="269"/>
       <c r="L1" s="38"/>
       <c r="M1" s="158"/>
       <c r="N1" s="158"/>
@@ -7257,14 +7257,14 @@
       <c r="BI1" s="158"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
       <c r="L2" s="38"/>
       <c r="M2" s="158"/>
       <c r="N2" s="158"/>
@@ -7317,14 +7317,14 @@
       <c r="BI2" s="158"/>
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="271" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="271"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="273"/>
       <c r="K3" s="158"/>
       <c r="L3" s="38"/>
       <c r="M3" s="158"/>
@@ -9497,12 +9497,12 @@
       <c r="BI34" s="158"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="272" t="s">
+      <c r="A35" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="273"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="274"/>
+      <c r="B35" s="275"/>
+      <c r="C35" s="275"/>
+      <c r="D35" s="276"/>
       <c r="E35" s="48"/>
       <c r="F35" s="43"/>
       <c r="G35" s="60"/>
@@ -9562,12 +9562,12 @@
       <c r="BI35" s="158"/>
     </row>
     <row r="36" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A36" s="275" t="s">
+      <c r="A36" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="276"/>
-      <c r="C36" s="276"/>
-      <c r="D36" s="277"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="279"/>
       <c r="E36" s="209">
         <f>F33-C113+K116</f>
         <v>0</v>
@@ -10034,15 +10034,15 @@
         <v>56</v>
       </c>
       <c r="E43" s="48"/>
-      <c r="F43" s="278" t="s">
+      <c r="F43" s="280" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="279"/>
-      <c r="H43" s="279"/>
-      <c r="I43" s="279"/>
-      <c r="J43" s="279"/>
-      <c r="K43" s="279"/>
-      <c r="L43" s="280"/>
+      <c r="G43" s="281"/>
+      <c r="H43" s="281"/>
+      <c r="I43" s="281"/>
+      <c r="J43" s="281"/>
+      <c r="K43" s="281"/>
+      <c r="L43" s="282"/>
       <c r="M43" s="158"/>
       <c r="N43" s="158"/>
       <c r="O43" s="158"/>
@@ -11284,10 +11284,10 @@
       <c r="C62" s="190"/>
       <c r="D62" s="81"/>
       <c r="E62" s="53"/>
-      <c r="F62" s="258" t="s">
+      <c r="F62" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="259"/>
+      <c r="G62" s="261"/>
       <c r="H62" s="157"/>
       <c r="I62" s="157"/>
       <c r="J62" s="82" t="s">
@@ -14475,10 +14475,10 @@
       <c r="BI112" s="158"/>
     </row>
     <row r="113" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A113" s="260" t="s">
+      <c r="A113" s="262" t="s">
         <v>23</v>
       </c>
-      <c r="B113" s="261"/>
+      <c r="B113" s="263"/>
       <c r="C113" s="203">
         <f>SUM(C37:C112)</f>
         <v>542960</v>
@@ -14604,10 +14604,10 @@
       <c r="BI114" s="158"/>
     </row>
     <row r="115" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A115" s="262" t="s">
+      <c r="A115" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="263"/>
+      <c r="B115" s="265"/>
       <c r="C115" s="201" t="s">
         <v>11</v>
       </c>
@@ -15247,8 +15247,8 @@
       <c r="N149" s="161"/>
     </row>
     <row r="150" spans="5:14">
-      <c r="F150" s="264"/>
-      <c r="G150" s="264"/>
+      <c r="F150" s="266"/>
+      <c r="G150" s="266"/>
       <c r="H150" s="158"/>
       <c r="I150" s="51"/>
       <c r="J150" s="38"/>
@@ -15907,8 +15907,8 @@
   </sheetPr>
   <dimension ref="A1:AC224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15928,35 +15928,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="286" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="286"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="288"/>
       <c r="F1" s="230"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="295" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="295"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="297"/>
       <c r="F2" s="230"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="289" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="289"/>
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="291"/>
       <c r="F3" s="230"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -15983,13 +15983,13 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="298" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="297"/>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="298"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="300"/>
       <c r="F4" s="230"/>
       <c r="G4" s="19"/>
       <c r="H4" s="7" t="s">
@@ -16018,10 +16018,10 @@
       <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" ht="21.75">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="300">
+      <c r="B5" s="240">
         <v>9000000</v>
       </c>
       <c r="C5" s="187"/>
@@ -16474,13 +16474,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="23.25" thickBot="1">
-      <c r="A18" s="290" t="s">
+      <c r="A18" s="292" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="291"/>
-      <c r="C18" s="291"/>
-      <c r="D18" s="291"/>
-      <c r="E18" s="292"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="293"/>
+      <c r="E18" s="294"/>
       <c r="F18" s="230"/>
       <c r="G18" s="8"/>
       <c r="H18" s="171"/>
@@ -16584,11 +16584,11 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" s="1" customFormat="1" ht="22.5" thickBot="1">
-      <c r="A21" s="281"/>
-      <c r="B21" s="282"/>
-      <c r="C21" s="282"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="283"/>
+      <c r="A21" s="283"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="285"/>
       <c r="F21" s="183"/>
       <c r="G21" s="183"/>
     </row>
